--- a/biology/Botanique/Khaya_(arbre)/Khaya_(arbre).xlsx
+++ b/biology/Botanique/Khaya_(arbre)/Khaya_(arbre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Khaya est le nom d'un genre d'arbres de la famille des Méliacées qui compte sept espèces, originaires d'Afrique tropicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de grands arbres pouvant atteindre 30 à 35 mètres de haut, plus rarement 45 mètres, avec un tronc de plus d'un mètre de diamètre, souvent muni de contreforts à la base.
 Les feuilles sont composées pennées, avec 4 à 6 paires de folioles, la foliole terminale étant absente ; chaque foliole, longue de 10 à 15 cm, est brutalement arrondie à son sommet, mais celui-ci se termine souvent par une pointe acuminée.
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est originaire d'Afrique tropicale et de Madagascar.
 </t>
@@ -577,7 +593,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Khaya anthotheca (Welw.) C. DC. (syn. K. nyasica Stapf ex Baker f. ), l'acajou blanc ;
 Khaya grandifoliola C. DC., l'acajou du Bénin ;
@@ -611,7 +629,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois des Khaya est appelé « acajou d'Afrique », la seule essence généralement considérée comme acajou à côté du véritable acajou provenant d'espèces du genre Swietenia.
  Portail de la botanique                     </t>
